--- a/app/data/smd.xlsx
+++ b/app/data/smd.xlsx
@@ -405,7 +405,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>arrhythmia_base</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pacemaker_base</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -445,7 +445,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>hyperlipidemia_base</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -465,7 +465,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>hypertension_base</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -485,7 +485,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>depression_base</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>epilepsy_base</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cardio_base</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cvd_base</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ihd_base</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pvd_base</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>vhd_base</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>hepatic_base</t>
+          <t>hepatic</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>acute_renal_base</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>chronic_renal_base</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>hypokalemia_base</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>hypocalcemia_base</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>hypomagnesemia_base</t>
+          <t>hypomagnesemia</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>stroke_base</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>copd_base</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>mi_base</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>suicidal_base</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>chf_base</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>arrhythmia_base</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pacemaker_base</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>hyperlipidemia_base</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>hypertension_base</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depression_base</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>epilepsy_base</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>cardio_base</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>cvd_base</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ihd_base</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pvd_base</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>vhd_base</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>hepatic_base</t>
+          <t>hepatic</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>acute_renal_base</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>chronic_renal_base</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>hypokalemia_base</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>hypocalcemia_base</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>hypomagnesemia_base</t>
+          <t>hypomagnesemia</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>stroke_base</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>copd_base</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mi_base</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>suicidal_base</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>chf_base</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>arrhythmia_base</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pacemaker_base</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>hyperlipidemia_base</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>hypertension_base</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>depression_base</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>epilepsy_base</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>cardio_base</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>cvd_base</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ihd_base</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pvd_base</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>vhd_base</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>hepatic_base</t>
+          <t>hepatic</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>acute_renal_base</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>chronic_renal_base</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>hypokalemia_base</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>hypocalcemia_base</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>hypomagnesemia_base</t>
+          <t>hypomagnesemia</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>stroke_base</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>copd_base</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>mi_base</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>suicidal_base</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>chf_base</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>arrhythmia_base</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>pacemaker_base</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>hyperlipidemia_base</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>hypertension_base</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>depression_base</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>epilepsy_base</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>cardio_base</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>cvd_base</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ihd_base</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>pvd_base</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>vhd_base</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>hepatic_base</t>
+          <t>hepatic</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>acute_renal_base</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>chronic_renal_base</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>hypokalemia_base</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>hypocalcemia_base</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>hypomagnesemia_base</t>
+          <t>hypomagnesemia</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>stroke_base</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>copd_base</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>mi_base</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>suicidal_base</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>chf_base</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>arrhythmia_base</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>pacemaker_base</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>hyperlipidemia_base</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>hypertension_base</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>depression_base</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>epilepsy_base</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>cardio_base</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>cvd_base</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ihd_base</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>pvd_base</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>vhd_base</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>hepatic_base</t>
+          <t>hepatic</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>acute_renal_base</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>chronic_renal_base</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>hypokalemia_base</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>hypocalcemia_base</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>hypomagnesemia_base</t>
+          <t>hypomagnesemia</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>stroke_base</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>copd_base</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>mi_base</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>suicidal_base</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>chf_base</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">

--- a/app/data/smd.xlsx
+++ b/app/data/smd.xlsx
@@ -381,11 +381,11 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.177</v>
+        <v>-0.003</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -401,11 +401,11 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.169</v>
+        <v>0.596</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>arrhythmia</t>
+          <t>age_group</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -421,11 +421,11 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.053</v>
+        <v>0.169</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pacemaker</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -441,11 +441,11 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.017</v>
+        <v>0.296</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>hyperlipidemia</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -461,11 +461,11 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>-0.042</v>
+        <v>0.252</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>hypertension</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -481,11 +481,11 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.048</v>
+        <v>-0.007</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>depression</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -501,11 +501,11 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.008999999999999999</v>
+        <v>-0.007</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>epilepsy</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -521,11 +521,11 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.296</v>
+        <v>-0.029</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cardio</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -541,11 +541,11 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>-0.029</v>
+        <v>0.048</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cvd</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -561,11 +561,11 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.403</v>
+        <v>0.091</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ihd</t>
+          <t>deprivation</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -581,11 +581,11 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.002</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pvd</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -601,11 +601,11 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.119</v>
+        <v>0.175</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>vhd</t>
+          <t>ethnicity</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -641,11 +641,11 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.003</v>
+        <v>0.017</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>acute_renal</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -661,11 +661,11 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.007</v>
+        <v>-0.042</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>chronic_renal</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -681,11 +681,11 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.02</v>
+        <v>0.003</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>hypokalemia</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -701,11 +701,11 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.003</v>
+        <v>0.02</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>hypocalcemia</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -741,11 +741,11 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>-0.038</v>
+        <v>0.403</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>stroke</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -761,11 +761,11 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>-0.007</v>
+        <v>0.177</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>copd</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -801,11 +801,11 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.056</v>
+        <v>0.053</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>suicidal</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -821,11 +821,11 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.252</v>
+        <v>0.002</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>chf</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -841,11 +841,11 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.596</v>
+        <v>-0.038</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>age_group</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -861,11 +861,11 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.091</v>
+        <v>0.056</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>deprivation</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -881,11 +881,11 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.175</v>
+        <v>0.119</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ethnicity</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -921,11 +921,11 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.058</v>
+        <v>-0.037</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -941,11 +941,11 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>-0.198</v>
+        <v>0.905</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>arrhythmia</t>
+          <t>age_group</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -961,11 +961,11 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>-0.107</v>
+        <v>-0.198</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pacemaker</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -981,11 +981,11 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>-0.431</v>
+        <v>-0.198</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>hyperlipidemia</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1001,11 +1001,11 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.5629999999999999</v>
+        <v>-0.13</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>hypertension</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1021,11 +1021,11 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.014</v>
+        <v>-0.275</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depression</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1041,11 +1041,11 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>-0.078</v>
+        <v>-0.183</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>epilepsy</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1061,11 +1061,11 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>-0.198</v>
+        <v>-0.154</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>cardio</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1081,11 +1081,11 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>-0.154</v>
+        <v>0.014</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>cvd</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1101,11 +1101,11 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>-0.214</v>
+        <v>0.106</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ihd</t>
+          <t>deprivation</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1121,11 +1121,11 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>-0.206</v>
+        <v>-0.078</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pvd</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1141,11 +1141,11 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>-0.113</v>
+        <v>0.338</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>vhd</t>
+          <t>ethnicity</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1181,11 +1181,11 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>-0.037</v>
+        <v>-0.431</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>acute_renal</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1201,11 +1201,11 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>-0.275</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>chronic_renal</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1221,11 +1221,11 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>-0.068</v>
+        <v>-0.014</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>hypokalemia</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1241,11 +1241,11 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>-0.014</v>
+        <v>-0.068</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>hypocalcemia</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1281,11 +1281,11 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>-0.179</v>
+        <v>-0.214</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>stroke</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1301,11 +1301,11 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>-0.183</v>
+        <v>0.058</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>copd</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1341,11 +1341,11 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>-0.002</v>
+        <v>-0.107</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>suicidal</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1361,11 +1361,11 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>-0.13</v>
+        <v>-0.206</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>chf</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1381,11 +1381,11 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.905</v>
+        <v>-0.179</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>age_group</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1401,11 +1401,11 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.106</v>
+        <v>-0.002</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>deprivation</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1421,11 +1421,11 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.338</v>
+        <v>-0.113</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ethnicity</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1461,11 +1461,11 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>-0.092</v>
+        <v>-0.013</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1481,11 +1481,11 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.092</v>
+        <v>0.363</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>arrhythmia</t>
+          <t>age_group</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1501,11 +1501,11 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.039</v>
+        <v>0.092</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pacemaker</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1521,11 +1521,11 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.192</v>
+        <v>0.073</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>hyperlipidemia</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1541,11 +1541,11 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.282</v>
+        <v>0.056</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>hypertension</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1561,11 +1561,11 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>-0.048</v>
+        <v>0.207</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>depression</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1581,11 +1581,11 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>-0.021</v>
+        <v>0.024</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>epilepsy</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1601,11 +1601,11 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.073</v>
+        <v>0.043</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>cardio</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1621,11 +1621,11 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.043</v>
+        <v>-0.048</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>cvd</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1641,11 +1641,11 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.08699999999999999</v>
+        <v>0.078</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ihd</t>
+          <t>deprivation</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1661,11 +1661,11 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.073</v>
+        <v>-0.021</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pvd</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1681,11 +1681,11 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>vhd</t>
+          <t>ethnicity</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1721,11 +1721,11 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>-0.013</v>
+        <v>0.192</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>acute_renal</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1741,11 +1741,11 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.207</v>
+        <v>0.282</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>chronic_renal</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1761,11 +1761,11 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>-0.02</v>
+        <v>0.024</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>hypokalemia</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1781,11 +1781,11 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.024</v>
+        <v>-0.02</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>hypocalcemia</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1821,11 +1821,11 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.053</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>stroke</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1841,11 +1841,11 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.024</v>
+        <v>-0.092</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>copd</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1881,11 +1881,11 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>-0.052</v>
+        <v>0.039</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>suicidal</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1901,11 +1901,11 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.056</v>
+        <v>0.073</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>chf</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1921,11 +1921,11 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.363</v>
+        <v>0.053</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>age_group</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1941,11 +1941,11 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.078</v>
+        <v>-0.052</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>deprivation</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1961,11 +1961,11 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ethnicity</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2001,11 +2001,11 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>-0.326</v>
+        <v>-0.021</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2021,11 +2021,11 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>-0.046</v>
+        <v>0.46</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>arrhythmia</t>
+          <t>age_group</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>pacemaker</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2061,11 +2061,11 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>-0.058</v>
+        <v>-0.003</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>hyperlipidemia</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2081,11 +2081,11 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.12</v>
+        <v>-0.004</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>hypertension</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2101,11 +2101,11 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.29</v>
+        <v>-0.062</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>depression</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2121,11 +2121,11 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.003</v>
+        <v>-0.028</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>epilepsy</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2141,11 +2141,11 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>-0.003</v>
+        <v>-0.062</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>cardio</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2161,11 +2161,11 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>-0.062</v>
+        <v>0.29</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>cvd</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2181,11 +2181,11 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>-0.038</v>
+        <v>0.079</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ihd</t>
+          <t>deprivation</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2201,11 +2201,11 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>-0.06</v>
+        <v>0.003</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>pvd</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2221,11 +2221,11 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>-0.023</v>
+        <v>0.322</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>vhd</t>
+          <t>ethnicity</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2261,11 +2261,11 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>-0.021</v>
+        <v>-0.058</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>acute_renal</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2281,11 +2281,11 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>-0.062</v>
+        <v>0.12</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>chronic_renal</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2301,11 +2301,11 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>-0.028</v>
+        <v>-0.012</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>hypokalemia</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2321,11 +2321,11 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>-0.012</v>
+        <v>-0.028</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>hypocalcemia</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>stroke</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2381,11 +2381,11 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>-0.028</v>
+        <v>-0.326</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>copd</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2421,11 +2421,11 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.158</v>
+        <v>-0.046</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>suicidal</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2441,11 +2441,11 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>-0.004</v>
+        <v>-0.06</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>chf</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2461,11 +2461,11 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.46</v>
+        <v>-0.038</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>age_group</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2481,11 +2481,11 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.079</v>
+        <v>0.158</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>deprivation</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2501,11 +2501,11 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.322</v>
+        <v>-0.023</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ethnicity</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2541,11 +2541,11 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>-0.002</v>
+        <v>-0.04</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2561,11 +2561,11 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.051</v>
+        <v>0.167</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>arrhythmia</t>
+          <t>age_group</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2581,11 +2581,11 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.046</v>
+        <v>0.051</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>pacemaker</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2601,11 +2601,11 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.093</v>
+        <v>0.122</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>hyperlipidemia</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2621,11 +2621,11 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.178</v>
+        <v>0.152</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>hypertension</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2641,11 +2641,11 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>-0.004</v>
+        <v>-0.039</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>depression</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2661,11 +2661,11 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>-0.029</v>
+        <v>-0.032</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>epilepsy</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2681,11 +2681,11 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.122</v>
+        <v>-0.036</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>cardio</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2701,11 +2701,11 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>-0.036</v>
+        <v>-0.004</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>cvd</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2721,11 +2721,11 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.126</v>
+        <v>0.101</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ihd</t>
+          <t>deprivation</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2741,11 +2741,11 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.007</v>
+        <v>-0.029</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>pvd</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2761,11 +2761,11 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.034</v>
+        <v>0.134</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>vhd</t>
+          <t>ethnicity</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2801,11 +2801,11 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>-0.04</v>
+        <v>0.093</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>acute_renal</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2821,11 +2821,11 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>-0.039</v>
+        <v>0.178</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>chronic_renal</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2841,11 +2841,11 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>-0.041</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>hypokalemia</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2861,11 +2861,11 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.008999999999999999</v>
+        <v>-0.041</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>hypocalcemia</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2901,11 +2901,11 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>-0.017</v>
+        <v>0.126</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>stroke</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2921,11 +2921,11 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>-0.032</v>
+        <v>-0.002</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>copd</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2961,11 +2961,11 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>-0.024</v>
+        <v>0.046</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>suicidal</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2981,11 +2981,11 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.152</v>
+        <v>0.007</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>chf</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3001,11 +3001,11 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.167</v>
+        <v>-0.017</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>age_group</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3021,11 +3021,11 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.101</v>
+        <v>-0.024</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>deprivation</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3041,11 +3041,11 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.134</v>
+        <v>0.034</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ethnicity</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">

--- a/app/data/smd.xlsx
+++ b/app/data/smd.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,11 +401,11 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.596</v>
+        <v>-0.003</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>age_group</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -421,11 +421,11 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.169</v>
+        <v>-0.003</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>arrhythmia</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -441,11 +441,11 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.296</v>
+        <v>0.596</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cardio</t>
+          <t>age_group</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -461,11 +461,11 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.252</v>
+        <v>0.596</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>chf</t>
+          <t>age_group</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -481,11 +481,11 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.007</v>
+        <v>0.596</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>chronic_renal</t>
+          <t>age_group</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -501,11 +501,11 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>-0.007</v>
+        <v>0.169</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>copd</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -521,11 +521,11 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.029</v>
+        <v>0.169</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cvd</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -541,11 +541,11 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.048</v>
+        <v>0.169</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>depression</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -561,11 +561,11 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.091</v>
+        <v>0.296</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>deprivation</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -581,11 +581,11 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.008999999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>epilepsy</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -601,11 +601,11 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.175</v>
+        <v>0.296</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ethnicity</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -621,11 +621,11 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.056</v>
+        <v>0.252</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>hepatic</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -641,11 +641,11 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.017</v>
+        <v>0.252</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>hyperlipidemia</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -661,11 +661,11 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.042</v>
+        <v>0.252</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>hypertension</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -681,11 +681,11 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.003</v>
+        <v>-0.007</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>hypocalcemia</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -701,11 +701,11 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.02</v>
+        <v>-0.007</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>hypokalemia</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -721,11 +721,11 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.002</v>
+        <v>-0.007</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>hypomagnesemia</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -741,11 +741,11 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.403</v>
+        <v>-0.007</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ihd</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -761,11 +761,11 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.177</v>
+        <v>-0.007</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -781,11 +781,11 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.412</v>
+        <v>-0.007</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -801,11 +801,11 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.053</v>
+        <v>-0.029</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pacemaker</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -821,11 +821,11 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.002</v>
+        <v>-0.029</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pvd</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -841,11 +841,11 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>-0.038</v>
+        <v>-0.029</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>stroke</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -861,11 +861,11 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.056</v>
+        <v>0.048</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>suicidal</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -881,11 +881,11 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.119</v>
+        <v>0.048</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>vhd</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -901,11 +901,11 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.074</v>
+        <v>0.048</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -921,11 +921,11 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>-0.037</v>
+        <v>0.091</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>acute_renal</t>
+          <t>deprivation</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.905</v>
+        <v>0.091</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>age_group</t>
+          <t>deprivation</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -955,17 +955,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>-0.198</v>
+        <v>0.091</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>arrhythmia</t>
+          <t>deprivation</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>-0.198</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cardio</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -995,17 +995,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.13</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>chf</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1015,17 +1015,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>-0.275</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>chronic_renal</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1035,17 +1035,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>-0.183</v>
+        <v>0.175</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>copd</t>
+          <t>ethnicity</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1055,17 +1055,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>-0.154</v>
+        <v>0.175</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>cvd</t>
+          <t>ethnicity</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1075,17 +1075,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.014</v>
+        <v>0.175</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depression</t>
+          <t>ethnicity</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1095,17 +1095,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.106</v>
+        <v>0.056</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>deprivation</t>
+          <t>hepatic</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1115,17 +1115,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>-0.078</v>
+        <v>0.056</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>epilepsy</t>
+          <t>hepatic</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1135,17 +1135,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.338</v>
+        <v>0.056</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ethnicity</t>
+          <t>hepatic</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1155,17 +1155,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>-0.182</v>
+        <v>0.017</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>hepatic</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1175,13 +1175,13 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>-0.431</v>
+        <v>0.017</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1195,17 +1195,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>-0.5629999999999999</v>
+        <v>0.017</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>hypertension</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>-0.014</v>
+        <v>-0.042</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>hypocalcemia</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1235,17 +1235,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>-0.068</v>
+        <v>-0.042</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>hypokalemia</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1255,17 +1255,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>-0</v>
+        <v>-0.042</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>hypomagnesemia</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1275,17 +1275,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>-0.214</v>
+        <v>0.003</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ihd</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1295,17 +1295,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.058</v>
+        <v>0.003</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1315,17 +1315,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>-0.164</v>
+        <v>0.003</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1335,17 +1335,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>-0.107</v>
+        <v>0.02</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pacemaker</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1355,17 +1355,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>-0.206</v>
+        <v>0.02</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pvd</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>-0.179</v>
+        <v>0.02</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>stroke</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1395,17 +1395,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>-0.002</v>
+        <v>0.002</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>suicidal</t>
+          <t>hypomagnesemia</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1415,17 +1415,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>-0.113</v>
+        <v>0.002</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>vhd</t>
+          <t>hypomagnesemia</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1435,17 +1435,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.157</v>
+        <v>0.002</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>hypomagnesemia</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>snri_vs_ssri</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>-0.013</v>
+        <v>0.403</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>acute_renal</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1475,17 +1475,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.363</v>
+        <v>0.403</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>age_group</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1495,17 +1495,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.092</v>
+        <v>0.403</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>arrhythmia</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1515,17 +1515,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.073</v>
+        <v>0.177</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>cardio</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1535,17 +1535,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.056</v>
+        <v>0.177</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>chf</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1555,17 +1555,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.207</v>
+        <v>0.177</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>chronic_renal</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1575,17 +1575,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.024</v>
+        <v>0.412</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>copd</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1595,17 +1595,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.043</v>
+        <v>0.412</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>cvd</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1615,17 +1615,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>-0.048</v>
+        <v>0.412</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>depression</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1635,17 +1635,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.078</v>
+        <v>0.053</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>deprivation</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1655,17 +1655,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>-0.021</v>
+        <v>0.053</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>epilepsy</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1675,17 +1675,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.14</v>
+        <v>0.053</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ethnicity</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.019</v>
+        <v>0.002</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>hepatic</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1715,17 +1715,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.192</v>
+        <v>0.002</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>hyperlipidemia</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1735,17 +1735,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.282</v>
+        <v>0.002</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>hypertension</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1755,17 +1755,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.024</v>
+        <v>-0.038</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>hypocalcemia</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1775,17 +1775,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>-0.02</v>
+        <v>-0.038</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>hypokalemia</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1795,17 +1795,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.005</v>
+        <v>-0.038</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>hypomagnesemia</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1815,17 +1815,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.08699999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ihd</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1835,17 +1835,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>-0.092</v>
+        <v>0.056</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1855,17 +1855,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.054</v>
+        <v>0.056</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1875,17 +1875,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.039</v>
+        <v>0.119</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>pacemaker</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1895,17 +1895,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.073</v>
+        <v>0.119</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>pvd</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1915,17 +1915,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.053</v>
+        <v>0.119</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>stroke</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>-0.052</v>
+        <v>0.074</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>suicidal</t>
+          <t>year</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1955,17 +1955,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.06</v>
+        <v>0.074</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>vhd</t>
+          <t>year</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1975,13 +1975,13 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.126</v>
+        <v>0.074</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1995,13 +1995,13 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>su_vs_dpp4</t>
+          <t>arb_vs_acei</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>-0.021</v>
+        <v>-0.037</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2015,17 +2015,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.46</v>
+        <v>-0.037</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>age_group</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2035,17 +2035,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>-0.046</v>
+        <v>-0.037</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>arrhythmia</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2055,17 +2055,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>-0.003</v>
+        <v>0.905</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>cardio</t>
+          <t>age_group</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2075,17 +2075,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>-0.004</v>
+        <v>0.905</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>chf</t>
+          <t>age_group</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2095,17 +2095,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>-0.062</v>
+        <v>0.905</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>chronic_renal</t>
+          <t>age_group</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2115,17 +2115,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>-0.028</v>
+        <v>-0.198</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>copd</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2135,17 +2135,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>-0.062</v>
+        <v>-0.198</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>cvd</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.29</v>
+        <v>-0.198</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>depression</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.079</v>
+        <v>-0.198</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>deprivation</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2195,17 +2195,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.003</v>
+        <v>-0.198</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>epilepsy</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2215,17 +2215,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.322</v>
+        <v>-0.198</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ethnicity</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2235,17 +2235,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.136</v>
+        <v>-0.13</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>hepatic</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2255,17 +2255,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>-0.058</v>
+        <v>-0.13</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>hyperlipidemia</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2275,17 +2275,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>hypertension</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2295,17 +2295,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>-0.012</v>
+        <v>-0.275</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>hypocalcemia</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2315,17 +2315,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>-0.028</v>
+        <v>-0.275</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>hypokalemia</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2335,17 +2335,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.007</v>
+        <v>-0.275</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>hypomagnesemia</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2355,17 +2355,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>-0.038</v>
+        <v>-0.183</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ihd</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2375,17 +2375,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>-0.326</v>
+        <v>-0.183</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2395,17 +2395,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>-0.026</v>
+        <v>-0.183</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>-0.046</v>
+        <v>-0.154</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>pacemaker</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2435,17 +2435,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>-0.06</v>
+        <v>-0.154</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>pvd</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2455,17 +2455,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>-0.038</v>
+        <v>-0.154</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>stroke</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2475,17 +2475,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.158</v>
+        <v>0.014</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>suicidal</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2495,17 +2495,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>-0.023</v>
+        <v>0.014</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>vhd</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2515,17 +2515,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.466</v>
+        <v>0.014</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2535,17 +2535,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>su_vs_glp1</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>-0.04</v>
+        <v>0.106</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>acute_renal</t>
+          <t>deprivation</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2555,17 +2555,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.167</v>
+        <v>0.106</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>age_group</t>
+          <t>deprivation</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2575,17 +2575,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.051</v>
+        <v>0.106</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>arrhythmia</t>
+          <t>deprivation</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2595,17 +2595,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.122</v>
+        <v>-0.078</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>cardio</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2615,17 +2615,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.152</v>
+        <v>-0.078</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>chf</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2635,17 +2635,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>-0.039</v>
+        <v>-0.078</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>chronic_renal</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>-0.032</v>
+        <v>0.338</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>copd</t>
+          <t>ethnicity</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2675,17 +2675,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>-0.036</v>
+        <v>0.338</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>cvd</t>
+          <t>ethnicity</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2695,17 +2695,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>-0.004</v>
+        <v>0.338</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>depression</t>
+          <t>ethnicity</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2715,17 +2715,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.101</v>
+        <v>-0.182</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>deprivation</t>
+          <t>hepatic</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2735,17 +2735,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>-0.029</v>
+        <v>-0.182</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>epilepsy</t>
+          <t>hepatic</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2755,17 +2755,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.134</v>
+        <v>-0.182</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ethnicity</t>
+          <t>hepatic</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2775,17 +2775,17 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.064</v>
+        <v>-0.431</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>hepatic</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2795,13 +2795,13 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.093</v>
+        <v>-0.431</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2815,17 +2815,17 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.178</v>
+        <v>-0.431</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>hypertension</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2835,17 +2835,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.008999999999999999</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>hypocalcemia</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2855,17 +2855,17 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>-0.041</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>hypokalemia</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2875,17 +2875,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>-0.005</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>hypomagnesemia</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.126</v>
+        <v>-0.014</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ihd</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2915,17 +2915,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>-0.002</v>
+        <v>-0.014</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2935,17 +2935,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.123</v>
+        <v>-0.014</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2955,17 +2955,17 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.046</v>
+        <v>-0.068</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>pacemaker</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2975,17 +2975,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.007</v>
+        <v>-0.068</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>pvd</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2995,17 +2995,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>-0.017</v>
+        <v>-0.068</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>stroke</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3015,17 +3015,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>-0.024</v>
+        <v>-0</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>suicidal</t>
+          <t>hypomagnesemia</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3035,17 +3035,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.034</v>
+        <v>-0</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>vhd</t>
+          <t>hypomagnesemia</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3055,25 +3055,5425 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>su_vs_sglt2</t>
+          <t>snri_vs_ssri</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136">
+        <v>-0</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>hypomagnesemia</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>-0.214</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ihd</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>-0.214</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ihd</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>-0.214</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ihd</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>0.058</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>0.058</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>0.058</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>-0.164</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>-0.164</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>-0.164</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>-0.107</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>pacemaker</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>-0.107</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>pacemaker</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>-0.107</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>pacemaker</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>-0.206</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>pvd</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>-0.206</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>pvd</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>-0.206</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>pvd</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>-0.179</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>-0.179</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>-0.179</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>-0.002</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>suicidal</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>-0.002</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>suicidal</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>-0.002</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>suicidal</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>-0.113</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>vhd</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>-0.113</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>vhd</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>-0.113</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>vhd</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>0.157</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>0.157</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>0.157</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>-0.013</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>acute_renal</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>-0.013</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>acute_renal</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>-0.013</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>acute_renal</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>0.363</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>0.363</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>0.363</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>0.092</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>arrhythmia</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>0.092</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>arrhythmia</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>0.092</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>arrhythmia</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>0.073</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>cardio</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>0.073</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>cardio</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>0.073</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>cardio</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>0.056</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>0.056</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>0.056</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>0.207</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>chronic_renal</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>0.207</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>chronic_renal</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>0.207</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>chronic_renal</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>0.024</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>0.024</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>0.024</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>0.043</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>cvd</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>0.043</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>cvd</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>0.043</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>cvd</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>-0.048</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>-0.048</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>-0.048</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>0.078</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>deprivation</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>0.078</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>deprivation</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>0.078</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>deprivation</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>-0.021</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>epilepsy</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>-0.021</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>epilepsy</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>-0.021</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>epilepsy</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>0.14</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>0.14</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>0.14</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>0.019</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>hepatic</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>0.019</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>hepatic</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>0.019</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>hepatic</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>0.192</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>0.192</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>0.192</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>0.282</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>0.282</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>0.282</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>0.024</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>hypocalcemia</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>0.024</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>hypocalcemia</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>0.024</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>hypocalcemia</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>-0.02</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>hypokalemia</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>-0.02</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>hypokalemia</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>-0.02</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>hypokalemia</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>0.005</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>hypomagnesemia</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>0.005</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>hypomagnesemia</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>0.005</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>hypomagnesemia</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ihd</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ihd</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ihd</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>-0.092</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>-0.092</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>-0.092</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>0.054</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>0.054</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>0.054</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>0.039</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>pacemaker</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>0.039</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>pacemaker</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>0.039</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>pacemaker</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>0.073</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>pvd</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>0.073</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>pvd</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>0.073</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>pvd</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>0.053</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>0.053</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>0.053</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>-0.052</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>suicidal</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>-0.052</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>suicidal</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>-0.052</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>suicidal</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>0.06</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>vhd</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>0.06</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>vhd</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>0.06</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>vhd</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>0.126</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>0.126</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <v>0.126</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>-0.021</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>acute_renal</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>-0.021</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>acute_renal</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>-0.021</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>acute_renal</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>0.46</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>0.46</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>0.46</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>-0.046</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>arrhythmia</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>-0.046</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>arrhythmia</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>-0.046</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>arrhythmia</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>-0.003</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>cardio</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>-0.003</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>cardio</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>-0.003</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>cardio</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>-0.004</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>-0.004</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>-0.004</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>-0.062</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>chronic_renal</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>-0.062</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>chronic_renal</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
+        <v>-0.062</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>chronic_renal</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>-0.028</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>-0.028</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>-0.028</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266">
+        <v>-0.062</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>cvd</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>-0.062</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>cvd</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>-0.062</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>cvd</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269">
+        <v>0.29</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270">
+        <v>0.29</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271">
+        <v>0.29</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272">
+        <v>0.079</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>deprivation</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273">
+        <v>0.079</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>deprivation</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274">
+        <v>0.079</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>deprivation</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>0.003</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>epilepsy</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276">
+        <v>0.003</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>epilepsy</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>0.003</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>epilepsy</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278">
+        <v>0.322</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>0.322</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280">
+        <v>0.322</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>0.136</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>hepatic</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>0.136</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>hepatic</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>0.136</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>hepatic</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>-0.058</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>-0.058</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>-0.058</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>0.12</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>0.12</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>0.12</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>-0.012</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>hypocalcemia</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>-0.012</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>hypocalcemia</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>-0.012</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>hypocalcemia</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>-0.028</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>hypokalemia</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294">
+        <v>-0.028</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>hypokalemia</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>-0.028</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>hypokalemia</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296">
+        <v>0.007</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>hypomagnesemia</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297">
+        <v>0.007</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>hypomagnesemia</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298">
+        <v>0.007</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>hypomagnesemia</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299">
+        <v>-0.038</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>ihd</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300">
+        <v>-0.038</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>ihd</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301">
+        <v>-0.038</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>ihd</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302">
+        <v>-0.326</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303">
+        <v>-0.326</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304">
+        <v>-0.326</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305">
+        <v>-0.026</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306">
+        <v>-0.026</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307">
+        <v>-0.026</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308">
+        <v>-0.046</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>pacemaker</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309">
+        <v>-0.046</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>pacemaker</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310">
+        <v>-0.046</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>pacemaker</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311">
+        <v>-0.06</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>pvd</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312">
+        <v>-0.06</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>pvd</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313">
+        <v>-0.06</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>pvd</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314">
+        <v>-0.038</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315">
+        <v>-0.038</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316">
+        <v>-0.038</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317">
+        <v>0.158</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>suicidal</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318">
+        <v>0.158</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>suicidal</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319">
+        <v>0.158</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>suicidal</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320">
+        <v>-0.023</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>vhd</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321">
+        <v>-0.023</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>vhd</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322">
+        <v>-0.023</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>vhd</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323">
+        <v>0.466</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324">
+        <v>0.466</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325">
+        <v>0.466</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326">
+        <v>-0.04</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>acute_renal</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327">
+        <v>-0.04</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>acute_renal</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328">
+        <v>-0.04</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>acute_renal</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329">
+        <v>0.167</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330">
+        <v>0.167</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331">
+        <v>0.167</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332">
+        <v>0.051</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>arrhythmia</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333">
+        <v>0.051</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>arrhythmia</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334">
+        <v>0.051</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>arrhythmia</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335">
+        <v>0.122</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>cardio</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336">
+        <v>0.122</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>cardio</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337">
+        <v>0.122</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>cardio</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338">
+        <v>0.152</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339">
+        <v>0.152</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340">
+        <v>0.152</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341">
+        <v>-0.039</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>chronic_renal</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342">
+        <v>-0.039</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>chronic_renal</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343">
+        <v>-0.039</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>chronic_renal</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344">
+        <v>-0.032</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345">
+        <v>-0.032</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346">
+        <v>-0.032</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347">
+        <v>-0.036</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>cvd</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348">
+        <v>-0.036</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>cvd</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349">
+        <v>-0.036</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>cvd</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350">
+        <v>-0.004</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351">
+        <v>-0.004</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352">
+        <v>-0.004</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353">
+        <v>0.101</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>deprivation</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354">
+        <v>0.101</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>deprivation</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355">
+        <v>0.101</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>deprivation</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356">
+        <v>-0.029</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>epilepsy</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357">
+        <v>-0.029</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>epilepsy</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358">
+        <v>-0.029</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>epilepsy</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359">
+        <v>0.134</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360">
+        <v>0.134</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361">
+        <v>0.134</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362">
+        <v>0.064</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>hepatic</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363">
+        <v>0.064</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>hepatic</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364">
+        <v>0.064</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>hepatic</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365">
+        <v>0.093</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366">
+        <v>0.093</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367">
+        <v>0.093</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368">
+        <v>0.178</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369">
+        <v>0.178</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370">
+        <v>0.178</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>hypocalcemia</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>hypocalcemia</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>hypocalcemia</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374">
+        <v>-0.041</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>hypokalemia</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375">
+        <v>-0.041</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>hypokalemia</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376">
+        <v>-0.041</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>hypokalemia</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377">
+        <v>-0.005</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>hypomagnesemia</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378">
+        <v>-0.005</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>hypomagnesemia</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379">
+        <v>-0.005</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>hypomagnesemia</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380">
+        <v>0.126</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>ihd</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381">
+        <v>0.126</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>ihd</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382">
+        <v>0.126</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>ihd</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>-0.002</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
+        <v>-0.002</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385">
+        <v>-0.002</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
+        <v>0.123</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387">
+        <v>0.123</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388">
+        <v>0.123</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389">
+        <v>0.046</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>pacemaker</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>0.046</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>pacemaker</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>0.046</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>pacemaker</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392">
+        <v>0.007</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>pvd</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393">
+        <v>0.007</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>pvd</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394">
+        <v>0.007</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>pvd</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395">
+        <v>-0.017</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396">
+        <v>-0.017</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397">
+        <v>-0.017</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398">
+        <v>-0.024</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>suicidal</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399">
+        <v>-0.024</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>suicidal</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400">
+        <v>-0.024</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>suicidal</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401">
+        <v>0.034</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>vhd</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402">
+        <v>0.034</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>vhd</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403">
+        <v>0.034</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>vhd</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404">
         <v>0.456</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B404" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>cprd</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405">
+        <v>0.456</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406">
+        <v>0.456</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
         <is>
           <t>su_vs_sglt2</t>
         </is>
